--- a/biology/Zoologie/Erebia_anyuica/Erebia_anyuica.xlsx
+++ b/biology/Zoologie/Erebia_anyuica/Erebia_anyuica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erebia anyuica est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Erebia.
 </t>
@@ -511,16 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erebia anyuica a été nommé par Kurentzov en 1966[1].
-Sous-espèces
-Erebia anyuica anyuica
-Erebia anyuica iltshira Belik, 1996
-Erebia anyuica jakuta Dubatolov, 1992 en Yakoutie.
-Erebia anyuica sokhondinka Dubatolov &amp; Zintshenko, 1995 ; dans le sud de la Sibérie[1].
-Nom vernaculaire
-Erebia anyuica se nomme Scree Alpine en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebia anyuica a été nommé par Kurentzov en 1966.
 </t>
         </is>
       </c>
@@ -546,16 +553,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erebia anyuica est un papillon marron foncé de taille moyenne (d'une envergure de 31 à 42 mm) avec aux antérieures une large bordure cuivrée qui contient une ligne submarginale de taches noires pupillées ou non d'un petit point noir. L'aile postérieure marron foncé porte une bordure cuivre plus étroite qui porte des taches noires non pupillées.
-Le revers est semblable[3],[2].
-Chenille
-La chenille n'est pas connue[3].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Erebia anyuica anyuica
+Erebia anyuica iltshira Belik, 1996
+Erebia anyuica jakuta Dubatolov, 1992 en Yakoutie.
+Erebia anyuica sokhondinka Dubatolov &amp; Zintshenko, 1995 ; dans le sud de la Sibérie.</t>
         </is>
       </c>
     </row>
@@ -580,15 +592,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une génération de mi-juin à fin juillet[3].
-Plantes hôtes
-Les plantes hôtes des chenilles sont pas connues[3].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebia anyuica se nomme Scree Alpine en anglais.
 </t>
         </is>
       </c>
@@ -614,16 +629,233 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebia anyuica est un papillon marron foncé de taille moyenne (d'une envergure de 31 à 42 mm) avec aux antérieures une large bordure cuivrée qui contient une ligne submarginale de taches noires pupillées ou non d'un petit point noir. L'aile postérieure marron foncé porte une bordure cuivre plus étroite qui porte des taches noires non pupillées.
+Le revers est semblable,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Erebia_anyuica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_anyuica</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille n'est pas connue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Erebia_anyuica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_anyuica</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération de mi-juin à fin juillet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Erebia_anyuica</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_anyuica</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes des chenilles sont pas connues.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Erebia_anyuica</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_anyuica</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside en zone arctique de la Sibérie jusqu'au nord-est de la Yakoutie et de l'Amérique du Nord dans le nord de l'Alaska et du Yukon jusqu'aux Territoires du Nord-Ouest[1],[3].
-Biotope
-Il réside dans les zones d'éboulis[1].
-Protection
-Pas de statut de protection particulier connu.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en zone arctique de la Sibérie jusqu'au nord-est de la Yakoutie et de l'Amérique du Nord dans le nord de l'Alaska et du Yukon jusqu'aux Territoires du Nord-Ouest,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Erebia_anyuica</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_anyuica</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les zones d'éboulis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Erebia_anyuica</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_anyuica</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier connu.
 </t>
         </is>
       </c>
